--- a/data/trans_orig/P41D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Habitat-trans_orig.xlsx
@@ -747,13 +747,13 @@
         <v>5832</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.165070440821465</v>
+        <v>0.1650704408214649</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7626840207133679</v>
+        <v>0.7626840207133678</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6283</v>
+        <v>5398</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.140509855342977</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6994204705382956</v>
+        <v>0.600913914459287</v>
       </c>
     </row>
     <row r="5">
@@ -838,7 +838,7 @@
         <v>7721</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2700</v>
+        <v>3585</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>8983</v>
@@ -847,7 +847,7 @@
         <v>0.8594901446570229</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3005795294617044</v>
+        <v>0.3990860855407132</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3758</v>
+        <v>3725</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3965744191043875</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8512943204210951</v>
+        <v>0.8438240577415042</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4719</v>
+        <v>4591</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2599051973706843</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7006796753940784</v>
+        <v>0.6816428491303367</v>
       </c>
     </row>
     <row r="8">
@@ -1018,7 +1018,7 @@
         <v>2664</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>4414</v>
@@ -1027,7 +1027,7 @@
         <v>0.6034255808956125</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1487056795789049</v>
+        <v>0.1527628398454666</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1039,16 +1039,16 @@
         <v>4985</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2018</v>
+        <v>2109</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>6735</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7400948026293157</v>
+        <v>0.7400948026293156</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2996598545209636</v>
+        <v>0.3130759793276698</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3215</v>
+        <v>2441</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1980226718382135</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8086190762437387</v>
+        <v>0.6138926279849559</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4066</v>
+        <v>3675</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1117373299155748</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5770172502234109</v>
+        <v>0.52162177443591</v>
       </c>
     </row>
     <row r="14">
@@ -1420,7 +1420,7 @@
         <v>3189</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>760</v>
+        <v>1535</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>3976</v>
@@ -1429,7 +1429,7 @@
         <v>0.8019773281617865</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1912127220998232</v>
+        <v>0.386107372015044</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>6259</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2980</v>
+        <v>3371</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>7046</v>
@@ -1450,7 +1450,7 @@
         <v>0.8882626700844253</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4229827497765884</v>
+        <v>0.4783782255640903</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1548,16 +1548,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6305</v>
+        <v>6131</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08907864004972729</v>
+        <v>0.08907864004972728</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4449293567574725</v>
+        <v>0.4326676233035622</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1566,19 +1566,19 @@
         <v>3631</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1137</v>
+        <v>804</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7167</v>
+        <v>6864</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3056370857670518</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0956913238435765</v>
+        <v>0.06771678849977691</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6032664253426726</v>
+        <v>0.5777709102159907</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1587,19 +1587,19 @@
         <v>4893</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1521</v>
+        <v>1614</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9908</v>
+        <v>10089</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1878380836554621</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05840139744656048</v>
+        <v>0.06196749173355762</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3803628276665241</v>
+        <v>0.3872939146200574</v>
       </c>
     </row>
     <row r="17">
@@ -1616,7 +1616,7 @@
         <v>12908</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7865</v>
+        <v>8039</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>14170</v>
@@ -1625,7 +1625,7 @@
         <v>0.9109213599502727</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5550706432425395</v>
+        <v>0.5673323766964378</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1637,19 +1637,19 @@
         <v>8249</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4713</v>
+        <v>5016</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10743</v>
+        <v>11076</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6943629142329483</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3967335746573267</v>
+        <v>0.4222290897840092</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9043086761564232</v>
+        <v>0.9322832115002229</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -1658,19 +1658,19 @@
         <v>21157</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16142</v>
+        <v>15961</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24529</v>
+        <v>24436</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.812161916344538</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6196371723334757</v>
+        <v>0.6127060853799424</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9415986025534391</v>
+        <v>0.9380325082664424</v>
       </c>
     </row>
     <row r="18">
